--- a/Data/EC/NIT-8901018972.xlsx
+++ b/Data/EC/NIT-8901018972.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6840C5A1-3059-4F3E-AD03-4675814DD7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{856D7FE5-DE59-4773-8029-6EBFECE1109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79589C63-E9FB-4534-A18C-5E0687D4C89D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{85C73C1D-0324-4BE3-B3CA-FDFCE7245C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="187">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,7 +71,7 @@
     <t>MILADYS MORELO PAREDES</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>19896764</t>
@@ -170,18 +170,6 @@
     <t>SAMUEL BERRIO CARMONA</t>
   </si>
   <si>
-    <t>92523071</t>
-  </si>
-  <si>
-    <t>FERNANDO JOSE GUEVARA CANCHILA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>9284684</t>
   </si>
   <si>
@@ -296,9 +284,6 @@
     <t>JAIRO E CASTRO MARTELO</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
     <t>73544509</t>
   </si>
   <si>
@@ -455,12 +440,6 @@
     <t>MARIO RODRIGUEZ PEREZ</t>
   </si>
   <si>
-    <t>73199550</t>
-  </si>
-  <si>
-    <t>JHON CARLOS NEWBALL DUMAR</t>
-  </si>
-  <si>
     <t>1047480523</t>
   </si>
   <si>
@@ -533,9 +512,6 @@
     <t>PAULO ROBERTO MORALES PAEZ</t>
   </si>
   <si>
-    <t>2502</t>
-  </si>
-  <si>
     <t>1100395931</t>
   </si>
   <si>
@@ -570,12 +546,6 @@
   </si>
   <si>
     <t>FERNANDO ALBERTO AVILES SIERRA</t>
-  </si>
-  <si>
-    <t>1047491482</t>
-  </si>
-  <si>
-    <t>SASKIA PAOLA FLOREZ SALGADO</t>
   </si>
   <si>
     <t>1065904172</t>
@@ -692,7 +662,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -705,9 +677,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -907,23 +877,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,10 +921,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,7 +977,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE17200-A65D-BF51-0EEA-CEDC8C88B21A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A5460C4-1D1E-4CE8-0F8B-4EDDA71C827D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,8 +1328,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79296A8-27DB-47E8-B0C3-E641312B5C8B}">
-  <dimension ref="B2:J112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC30C4A-B4BC-4215-B659-5912CD2F1EF8}">
+  <dimension ref="B2:J104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1383,7 +1353,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1428,7 +1398,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1460,12 +1430,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7387179</v>
+        <v>6699033</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1476,17 +1446,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C13" s="5">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1513,13 +1483,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1654,7 +1624,7 @@
         <v>72737</v>
       </c>
       <c r="G21" s="18">
-        <v>1818423</v>
+        <v>1818425</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1792,7 +1762,7 @@
         <v>72737</v>
       </c>
       <c r="G27" s="18">
-        <v>1818423</v>
+        <v>1818424</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1861,7 +1831,7 @@
         <v>120817</v>
       </c>
       <c r="G30" s="18">
-        <v>3020437</v>
+        <v>3020438</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1927,10 +1897,10 @@
         <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>116000</v>
+        <v>99044</v>
       </c>
       <c r="G33" s="18">
-        <v>2900000</v>
+        <v>2476121</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1941,19 +1911,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
-        <v>116000</v>
+        <v>102120</v>
       </c>
       <c r="G34" s="18">
-        <v>2900000</v>
+        <v>2553007</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1964,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
-        <v>116000</v>
+        <v>76368</v>
       </c>
       <c r="G35" s="18">
-        <v>2900000</v>
+        <v>1909197</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1987,19 +1957,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>99044</v>
+        <v>155048</v>
       </c>
       <c r="G36" s="18">
-        <v>2476121</v>
+        <v>3876204</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -2010,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>102120</v>
+        <v>76368</v>
       </c>
       <c r="G37" s="18">
-        <v>2553007</v>
+        <v>1909197</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -2033,19 +2003,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>76368</v>
+        <v>85775</v>
       </c>
       <c r="G38" s="18">
-        <v>1909197</v>
+        <v>2144358</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -2056,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="18">
-        <v>155048</v>
+        <v>102120</v>
       </c>
       <c r="G39" s="18">
-        <v>3876204</v>
+        <v>2553007</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -2079,10 +2049,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>11</v>
@@ -2091,7 +2061,7 @@
         <v>76368</v>
       </c>
       <c r="G40" s="18">
-        <v>1909197</v>
+        <v>1909198</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2102,10 +2072,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>11</v>
@@ -2125,19 +2095,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>102120</v>
+        <v>72737</v>
       </c>
       <c r="G42" s="18">
-        <v>2553007</v>
+        <v>1818425</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2148,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>76368</v>
+        <v>90908</v>
       </c>
       <c r="G43" s="18">
-        <v>1909197</v>
+        <v>2272708</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2171,19 +2141,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>85775</v>
+        <v>155048</v>
       </c>
       <c r="G44" s="18">
-        <v>2144358</v>
+        <v>3876204</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2194,10 +2164,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>11</v>
@@ -2206,7 +2176,7 @@
         <v>72737</v>
       </c>
       <c r="G45" s="18">
-        <v>1818423</v>
+        <v>1818424</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2217,19 +2187,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>90908</v>
+        <v>102120</v>
       </c>
       <c r="G46" s="18">
-        <v>2272708</v>
+        <v>2553007</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2240,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="18">
-        <v>155048</v>
+        <v>99044</v>
       </c>
       <c r="G47" s="18">
-        <v>3876204</v>
+        <v>2476121</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2263,19 +2233,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>72737</v>
+        <v>237326</v>
       </c>
       <c r="G48" s="18">
-        <v>1818423</v>
+        <v>5933166</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2286,19 +2256,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>102120</v>
+        <v>85775</v>
       </c>
       <c r="G49" s="18">
-        <v>2553007</v>
+        <v>2144358</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2309,19 +2279,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="18">
-        <v>99044</v>
+        <v>72737</v>
       </c>
       <c r="G50" s="18">
-        <v>2476121</v>
+        <v>1818424</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2332,19 +2302,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>237326</v>
+        <v>76368</v>
       </c>
       <c r="G51" s="18">
-        <v>5933165</v>
+        <v>1909199</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2355,19 +2325,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>85775</v>
+        <v>80827</v>
       </c>
       <c r="G52" s="18">
-        <v>2144358</v>
+        <v>2020691</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2378,10 +2348,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>11</v>
@@ -2401,10 +2371,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>11</v>
@@ -2424,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
-        <v>76368</v>
+        <v>80827</v>
       </c>
       <c r="G55" s="18">
-        <v>1909197</v>
+        <v>2020691</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2447,19 +2417,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>80827</v>
+        <v>64782</v>
       </c>
       <c r="G56" s="18">
-        <v>2020691</v>
+        <v>1619538</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2470,10 +2440,10 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>11</v>
@@ -2493,19 +2463,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="18">
-        <v>76368</v>
+        <v>105107</v>
       </c>
       <c r="G58" s="18">
-        <v>1909197</v>
+        <v>2627660</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2516,10 +2486,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>11</v>
@@ -2539,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="18">
-        <v>64782</v>
+        <v>102120</v>
       </c>
       <c r="G60" s="18">
-        <v>1619538</v>
+        <v>2553007</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2562,19 +2532,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>72737</v>
+        <v>57346</v>
       </c>
       <c r="G61" s="18">
-        <v>1818423</v>
+        <v>1433640</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2585,19 +2555,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="18">
-        <v>105107</v>
+        <v>80827</v>
       </c>
       <c r="G62" s="18">
-        <v>2627660</v>
+        <v>2020691</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2608,19 +2578,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>80827</v>
+        <v>72737</v>
       </c>
       <c r="G63" s="18">
-        <v>2020691</v>
+        <v>1818423</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2631,19 +2601,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>102120</v>
+        <v>76368</v>
       </c>
       <c r="G64" s="18">
-        <v>2553007</v>
+        <v>1909197</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2654,19 +2624,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="18">
-        <v>57346</v>
+        <v>76368</v>
       </c>
       <c r="G65" s="18">
-        <v>1433640</v>
+        <v>1909197</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2677,19 +2647,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="18">
-        <v>80827</v>
+        <v>76368</v>
       </c>
       <c r="G66" s="18">
-        <v>2020691</v>
+        <v>1909197</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2700,10 +2670,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>11</v>
@@ -2712,7 +2682,7 @@
         <v>72737</v>
       </c>
       <c r="G67" s="18">
-        <v>1818423</v>
+        <v>1818424</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2723,19 +2693,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="18">
-        <v>76368</v>
+        <v>72737</v>
       </c>
       <c r="G68" s="18">
-        <v>1909197</v>
+        <v>1818423</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2746,19 +2716,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="18">
-        <v>76368</v>
+        <v>58396</v>
       </c>
       <c r="G69" s="18">
-        <v>1909197</v>
+        <v>1459878</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2769,19 +2739,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="18">
-        <v>76368</v>
+        <v>92552</v>
       </c>
       <c r="G70" s="18">
-        <v>1909197</v>
+        <v>2313824</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2792,19 +2762,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="18">
-        <v>72737</v>
+        <v>60710</v>
       </c>
       <c r="G71" s="18">
-        <v>1818423</v>
+        <v>1517769</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2815,19 +2785,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F72" s="18">
-        <v>72737</v>
+        <v>76368</v>
       </c>
       <c r="G72" s="18">
-        <v>1818423</v>
+        <v>1909197</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2838,19 +2808,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="18">
-        <v>58396</v>
+        <v>72737</v>
       </c>
       <c r="G73" s="18">
-        <v>1459878</v>
+        <v>1818423</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2861,19 +2831,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="18">
-        <v>92552</v>
+        <v>72737</v>
       </c>
       <c r="G74" s="18">
-        <v>2313824</v>
+        <v>1818423</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2884,19 +2854,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="18">
-        <v>60710</v>
+        <v>80827</v>
       </c>
       <c r="G75" s="18">
-        <v>1517769</v>
+        <v>2020694</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2907,19 +2877,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="18">
-        <v>76368</v>
+        <v>72737</v>
       </c>
       <c r="G76" s="18">
-        <v>1909197</v>
+        <v>1818423</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2930,19 +2900,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F77" s="18">
-        <v>72737</v>
+        <v>76368</v>
       </c>
       <c r="G77" s="18">
-        <v>1818423</v>
+        <v>1909198</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2953,19 +2923,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="18">
-        <v>72737</v>
+        <v>58396</v>
       </c>
       <c r="G78" s="18">
-        <v>1818423</v>
+        <v>1459878</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2976,19 +2946,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="18">
-        <v>80827</v>
+        <v>68532</v>
       </c>
       <c r="G79" s="18">
-        <v>2020694</v>
+        <v>1713309</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2999,19 +2969,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E80" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="18">
-        <v>72737</v>
+        <v>58396</v>
       </c>
       <c r="G80" s="18">
-        <v>1818423</v>
+        <v>1459878</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -3022,19 +2992,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E81" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="18">
-        <v>76368</v>
+        <v>102008</v>
       </c>
       <c r="G81" s="18">
-        <v>1909197</v>
+        <v>2550206</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -3045,19 +3015,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E82" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="18">
-        <v>57346</v>
+        <v>74261</v>
       </c>
       <c r="G82" s="18">
-        <v>877803</v>
+        <v>1856526</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -3068,19 +3038,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="18">
-        <v>58396</v>
+        <v>95040</v>
       </c>
       <c r="G83" s="18">
-        <v>1459878</v>
+        <v>2376000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3091,19 +3061,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="18">
-        <v>68532</v>
+        <v>56940</v>
       </c>
       <c r="G84" s="18">
-        <v>1713309</v>
+        <v>1423500</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3114,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="18">
-        <v>58396</v>
+        <v>80827</v>
       </c>
       <c r="G85" s="18">
-        <v>1459878</v>
+        <v>2020691</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3137,19 +3107,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E86" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="18">
-        <v>102008</v>
+        <v>64427</v>
       </c>
       <c r="G86" s="18">
-        <v>2550206</v>
+        <v>1610658</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3160,19 +3130,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="18">
-        <v>74261</v>
+        <v>76368</v>
       </c>
       <c r="G87" s="18">
-        <v>1856526</v>
+        <v>1909197</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3183,19 +3153,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="18">
-        <v>95040</v>
+        <v>72737</v>
       </c>
       <c r="G88" s="18">
-        <v>2376000</v>
+        <v>1818423</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3206,19 +3176,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="18">
-        <v>56940</v>
+        <v>92552</v>
       </c>
       <c r="G89" s="18">
-        <v>1423500</v>
+        <v>2313824</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3229,19 +3199,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F90" s="18">
-        <v>80827</v>
+        <v>82080</v>
       </c>
       <c r="G90" s="18">
-        <v>2020691</v>
+        <v>2052000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3252,19 +3222,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="18">
-        <v>64427</v>
+        <v>57346</v>
       </c>
       <c r="G91" s="18">
-        <v>1610657</v>
+        <v>1433640</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3275,19 +3245,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F92" s="18">
-        <v>76368</v>
+        <v>60710</v>
       </c>
       <c r="G92" s="18">
-        <v>1909197</v>
+        <v>1517769</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3298,19 +3268,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="18">
-        <v>72737</v>
+        <v>58396</v>
       </c>
       <c r="G93" s="18">
-        <v>1818423</v>
+        <v>1459878</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3321,19 +3291,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F94" s="18">
-        <v>92552</v>
+        <v>56940</v>
       </c>
       <c r="G94" s="18">
-        <v>2313824</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3344,19 +3314,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="F95" s="18">
-        <v>92552</v>
+        <v>57346</v>
       </c>
       <c r="G95" s="18">
-        <v>2313824</v>
+        <v>1433640</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3367,19 +3337,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F96" s="18">
-        <v>82080</v>
+        <v>57346</v>
       </c>
       <c r="G96" s="18">
-        <v>2052000</v>
+        <v>1433640</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3390,10 +3360,10 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E97" s="16" t="s">
         <v>11</v>
@@ -3409,240 +3379,56 @@
       <c r="J97" s="20"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="18">
-        <v>60710</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1517769</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99" s="18">
-        <v>58396</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1459878</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="B98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D98" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101" s="18">
+      <c r="E98" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="24">
         <v>57346</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G98" s="24">
         <v>1433640</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="B103" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="H103" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F104" s="18">
-        <v>57346</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1433640</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F105" s="18">
-        <v>57346</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1433640</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="22" t="s">
+      <c r="B104" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D106" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="24">
-        <v>57346</v>
-      </c>
-      <c r="G106" s="24">
-        <v>1433640</v>
-      </c>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="26"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C111" s="32"/>
-      <c r="H111" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C112" s="32"/>
-      <c r="H112" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="C104" s="32"/>
+      <c r="H104" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H103:J103"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
